--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="07-07-2023" sheetId="1" r:id="rId1"/>
+    <sheet name="08-07-2023" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>rice</t>
   </si>
@@ -27,15 +24,52 @@
     <t>oil</t>
   </si>
   <si>
-    <t>chili</t>
+    <t>reserve bank of HP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bank </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Counter</t>
+    </r>
+  </si>
+  <si>
+    <t>cilieWith0nion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -359,44 +396,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>20</v>
+      <c r="B1" s="1">
+        <v>1400</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1400</v>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -406,13 +450,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>rice</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>cilieWith0nion</t>
+  </si>
+  <si>
+    <t>khuhiLeftHani</t>
+  </si>
+  <si>
+    <t>avishekOnline</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -407,9 +413,10 @@
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -417,12 +424,13 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1000</v>
+        <f>SUM(D2,F2,H2,J2)</f>
+        <v>2400</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -441,6 +449,12 @@
       </c>
       <c r="H2">
         <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -450,18 +464,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,9 +485,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>rice</t>
   </si>
@@ -51,13 +51,23 @@
   <si>
     <t>avishekOnline</t>
   </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>mouth Fresh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -104,9 +114,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -464,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -475,9 +486,11 @@
     <col min="1" max="1" width="23.1796875" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -485,7 +498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -494,6 +507,24 @@
       </c>
       <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18800</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>rice</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>mouth Fresh</t>
+  </si>
+  <si>
+    <t>handCash</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -490,7 +493,7 @@
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -498,7 +501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -525,6 +528,12 @@
       </c>
       <c r="I2" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="140" windowWidth="19140" windowHeight="7090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07-07-2023" sheetId="1" r:id="rId1"/>
     <sheet name="08-07-2023" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="09-07-2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>rice</t>
   </si>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -544,12 +544,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -563,9 +563,6 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1">
-        <v>240</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">

--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>rice</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>handCash</t>
+  </si>
+  <si>
+    <t>duo</t>
+  </si>
+  <si>
+    <t>flesh</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>motan</t>
   </si>
 </sst>
 </file>
@@ -547,7 +559,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -563,15 +575,39 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="1">
+        <f>SUM(H2,F2,B2,D2)</f>
+        <v>2890</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="1">
+        <v>1220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>610</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2">
+        <v>700</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="2"/>
     </row>
   </sheetData>

--- a/grossry.xlsx
+++ b/grossry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>rice</t>
   </si>
@@ -67,13 +67,16 @@
     <t>duo</t>
   </si>
   <si>
-    <t>flesh</t>
-  </si>
-  <si>
     <t>fish</t>
   </si>
   <si>
     <t>motan</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>khira</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,74 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18800</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -510,7 +580,8 @@
         <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>100</v>
+        <f>SUM(H2,F2,B2,D2)</f>
+        <v>2890</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -518,73 +589,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>21300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>18800</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
-        <v>300</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1">
-        <f>SUM(H2,F2,B2,D2)</f>
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
         <v>1220</v>
       </c>
       <c r="C2" t="s">
@@ -600,15 +604,18 @@
         <v>610</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
